--- a/DataCamp Syllabus.xlsx
+++ b/DataCamp Syllabus.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njathar\Desktop\parcap-github\business-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikhil\Desktop\parcap-github\business-education\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC2DD72-523D-48CA-A62D-F6A969E75BEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataCamp - Full Syllabus" sheetId="2" r:id="rId1"/>
     <sheet name="DataCamp - Natalie" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="162">
   <si>
     <t>Total Courses</t>
   </si>
@@ -508,12 +514,15 @@
   </si>
   <si>
     <t>Experience</t>
+  </si>
+  <si>
+    <t>Order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -687,6 +696,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -968,12 +983,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N145"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,6 +996,7 @@
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="11" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
@@ -1002,6 +1018,9 @@
       <c r="D1" s="7" t="s">
         <v>160</v>
       </c>
+      <c r="E1" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1037,6 +1056,7 @@
       <c r="D2" s="13">
         <v>6200</v>
       </c>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1051,6 +1071,7 @@
       <c r="D3" s="13">
         <v>6950</v>
       </c>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1065,6 +1086,7 @@
       <c r="D4" s="13">
         <v>7250</v>
       </c>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1079,6 +1101,7 @@
       <c r="D5" s="13">
         <v>4300</v>
       </c>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1093,6 +1116,7 @@
       <c r="D6" s="13">
         <v>3950</v>
       </c>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1107,6 +1131,7 @@
       <c r="D7" s="13">
         <v>5850</v>
       </c>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1121,6 +1146,7 @@
       <c r="D8" s="13">
         <v>3100</v>
       </c>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1135,6 +1161,7 @@
       <c r="D9" s="13">
         <v>4350</v>
       </c>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1149,6 +1176,7 @@
       <c r="D10" s="13">
         <v>4150</v>
       </c>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1163,6 +1191,7 @@
       <c r="D11" s="13">
         <v>4200</v>
       </c>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1177,6 +1206,7 @@
       <c r="D12" s="13">
         <v>5050</v>
       </c>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1191,6 +1221,7 @@
       <c r="D13" s="13">
         <v>4000</v>
       </c>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1205,6 +1236,7 @@
       <c r="D14" s="13">
         <v>3850</v>
       </c>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1219,6 +1251,7 @@
       <c r="D15" s="13">
         <v>4350</v>
       </c>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1233,8 +1266,9 @@
       <c r="D16" s="16">
         <v>3850</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1247,8 +1281,9 @@
       <c r="D17" s="13">
         <v>4750</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1261,8 +1296,9 @@
       <c r="D18" s="13">
         <v>3550</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1275,8 +1311,9 @@
       <c r="D19" s="13">
         <v>3950</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1289,8 +1326,9 @@
       <c r="D20" s="13">
         <v>4500</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1303,8 +1341,9 @@
       <c r="D21" s="16">
         <v>4450</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1317,8 +1356,9 @@
       <c r="D22" s="13">
         <v>2900</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1331,8 +1371,9 @@
       <c r="D23" s="13">
         <v>3400</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1345,8 +1386,9 @@
       <c r="D24" s="13">
         <v>6550</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1359,8 +1401,9 @@
       <c r="D25" s="13">
         <v>4500</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1373,8 +1416,9 @@
       <c r="D26" s="13">
         <v>3950</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1387,8 +1431,9 @@
       <c r="D27" s="13">
         <v>4500</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1401,8 +1446,9 @@
       <c r="D28" s="13">
         <v>3600</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
@@ -1415,8 +1461,9 @@
       <c r="D29" s="16">
         <v>4200</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1429,8 +1476,9 @@
       <c r="D30" s="13">
         <v>3700</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1443,8 +1491,9 @@
       <c r="D31" s="13">
         <v>5250</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1457,8 +1506,9 @@
       <c r="D32" s="13">
         <v>4750</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1471,8 +1521,9 @@
       <c r="D33" s="13">
         <v>7550</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1485,8 +1536,9 @@
       <c r="D34" s="13">
         <v>5250</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1499,8 +1551,9 @@
       <c r="D35" s="13">
         <v>5000</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1513,8 +1566,9 @@
       <c r="D36" s="13">
         <v>3550</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1527,8 +1581,9 @@
       <c r="D37" s="13">
         <v>4950</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1541,8 +1596,9 @@
       <c r="D38" s="13">
         <v>4600</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1555,8 +1611,9 @@
       <c r="D39" s="13">
         <v>3450</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1569,8 +1626,9 @@
       <c r="D40" s="13">
         <v>4350</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1583,8 +1641,9 @@
       <c r="D41" s="13">
         <v>4200</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1597,8 +1656,9 @@
       <c r="D42" s="13">
         <v>3950</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1611,8 +1671,9 @@
       <c r="D43" s="13">
         <v>4500</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1625,8 +1686,9 @@
       <c r="D44" s="13">
         <v>4000</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>9</v>
       </c>
@@ -1639,8 +1701,9 @@
       <c r="D45" s="16">
         <v>4550</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="23"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1653,8 +1716,9 @@
       <c r="D46" s="13">
         <v>4600</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -1667,8 +1731,11 @@
       <c r="D47" s="13">
         <v>3800</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -1681,8 +1748,11 @@
       <c r="D48" s="13">
         <v>3600</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1695,8 +1765,11 @@
       <c r="D49" s="13">
         <v>4350</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1709,8 +1782,9 @@
       <c r="D50" s="13">
         <v>3950</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -1723,8 +1797,11 @@
       <c r="D51" s="13">
         <v>4200</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -1737,8 +1814,9 @@
       <c r="D52" s="13">
         <v>3200</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="22"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -1751,8 +1829,9 @@
       <c r="D53" s="13">
         <v>3600</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="22"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -1765,8 +1844,9 @@
       <c r="D54" s="13">
         <v>4200</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -1779,8 +1859,9 @@
       <c r="D55" s="13">
         <v>4350</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="22"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -1793,8 +1874,9 @@
       <c r="D56" s="13">
         <v>4450</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="22"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -1807,8 +1889,9 @@
       <c r="D57" s="13">
         <v>4950</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="22"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -1821,8 +1904,9 @@
       <c r="D58" s="13">
         <v>4350</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="22"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -1835,8 +1919,11 @@
       <c r="D59" s="13">
         <v>4250</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -1849,8 +1936,11 @@
       <c r="D60" s="13">
         <v>4650</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -1863,8 +1953,9 @@
       <c r="D61" s="13">
         <v>4550</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="22"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -1877,8 +1968,9 @@
       <c r="D62" s="13">
         <v>4000</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="22"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -1891,8 +1983,11 @@
       <c r="D63" s="13">
         <v>3750</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -1905,8 +2000,9 @@
       <c r="D64" s="13">
         <v>4450</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="22"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -1919,8 +2015,9 @@
       <c r="D65" s="13">
         <v>3900</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="22"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -1933,8 +2030,9 @@
       <c r="D66" s="13">
         <v>4550</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="22"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -1947,8 +2045,9 @@
       <c r="D67" s="13">
         <v>4200</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="22"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -1961,8 +2060,9 @@
       <c r="D68" s="13">
         <v>4200</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="22"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -1975,8 +2075,9 @@
       <c r="D69" s="13">
         <v>4150</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="22"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -1989,8 +2090,9 @@
       <c r="D70" s="13">
         <v>4600</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="22"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -2003,8 +2105,9 @@
       <c r="D71" s="13">
         <v>4050</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="22"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -2017,8 +2120,9 @@
       <c r="D72" s="13">
         <v>4650</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="22"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2031,8 +2135,9 @@
       <c r="D73" s="13">
         <v>3750</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="22"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -2045,8 +2150,9 @@
       <c r="D74" s="13">
         <v>3600</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="22"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -2059,8 +2165,9 @@
       <c r="D75" s="13">
         <v>4100</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="22"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -2073,8 +2180,9 @@
       <c r="D76" s="13">
         <v>4000</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="22"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -2087,8 +2195,9 @@
       <c r="D77" s="13">
         <v>4400</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="22"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -2101,8 +2210,9 @@
       <c r="D78" s="13">
         <v>4600</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="22"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -2115,8 +2225,9 @@
       <c r="D79" s="13">
         <v>3400</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="22"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -2129,8 +2240,9 @@
       <c r="D80" s="13">
         <v>3950</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="22"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -2143,8 +2255,9 @@
       <c r="D81" s="13">
         <v>3600</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="22"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -2157,8 +2270,9 @@
       <c r="D82" s="13">
         <v>4700</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="22"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -2171,8 +2285,9 @@
       <c r="D83" s="13">
         <v>3900</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="22"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -2185,8 +2300,9 @@
       <c r="D84" s="13">
         <v>3750</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="22"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -2199,8 +2315,9 @@
       <c r="D85" s="13">
         <v>4300</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="22"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -2213,8 +2330,9 @@
       <c r="D86" s="13">
         <v>4000</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="22"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -2227,8 +2345,9 @@
       <c r="D87" s="13">
         <v>4300</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="22"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -2241,8 +2360,9 @@
       <c r="D88" s="13">
         <v>3950</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="22"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>10</v>
       </c>
@@ -2255,8 +2375,9 @@
       <c r="D89" s="16">
         <v>3750</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="23"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -2269,8 +2390,9 @@
       <c r="D90" s="13">
         <v>6500</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="22"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -2283,8 +2405,9 @@
       <c r="D91" s="13">
         <v>6200</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="22"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -2297,8 +2420,9 @@
       <c r="D92" s="13">
         <v>3600</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="22"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -2311,8 +2435,9 @@
       <c r="D93" s="13">
         <v>3950</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="22"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -2325,8 +2450,9 @@
       <c r="D94" s="13">
         <v>4450</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="22"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -2339,8 +2465,9 @@
       <c r="D95" s="13">
         <v>5300</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="22"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -2353,8 +2480,9 @@
       <c r="D96" s="13">
         <v>3450</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="22"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -2367,8 +2495,9 @@
       <c r="D97" s="13">
         <v>3800</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="22"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -2381,8 +2510,9 @@
       <c r="D98" s="13">
         <v>3900</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="22"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -2395,8 +2525,9 @@
       <c r="D99" s="13">
         <v>4400</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="22"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -2409,8 +2540,9 @@
       <c r="D100" s="13">
         <v>3500</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="22"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -2423,8 +2555,9 @@
       <c r="D101" s="13">
         <v>3950</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="22"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -2437,8 +2570,9 @@
       <c r="D102" s="13">
         <v>4300</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="22"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>11</v>
       </c>
@@ -2451,8 +2585,9 @@
       <c r="D103" s="13">
         <v>3900</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="22"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>11</v>
       </c>
@@ -2465,8 +2600,9 @@
       <c r="D104" s="13">
         <v>4300</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="22"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>11</v>
       </c>
@@ -2479,8 +2615,9 @@
       <c r="D105" s="16">
         <v>3950</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="23"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -2493,8 +2630,9 @@
       <c r="D106" s="13">
         <v>4400</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="22"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -2507,8 +2645,9 @@
       <c r="D107" s="13">
         <v>4000</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="22"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -2521,8 +2660,9 @@
       <c r="D108" s="13">
         <v>5150</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="22"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -2535,8 +2675,9 @@
       <c r="D109" s="13">
         <v>4850</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="22"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -2549,8 +2690,9 @@
       <c r="D110" s="13">
         <v>3250</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="22"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -2563,8 +2705,9 @@
       <c r="D111" s="13">
         <v>3250</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="22"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -2577,8 +2720,9 @@
       <c r="D112" s="13">
         <v>4450</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="22"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -2591,8 +2735,9 @@
       <c r="D113" s="13">
         <v>5300</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="22"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -2605,8 +2750,9 @@
       <c r="D114" s="13">
         <v>5050</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="22"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -2619,22 +2765,24 @@
       <c r="D115" s="13">
         <v>4350</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="17" t="s">
+      <c r="E115" s="22"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>12</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C116" s="19">
-        <v>4</v>
-      </c>
-      <c r="D116" s="20">
+      <c r="C116" s="1">
+        <v>4</v>
+      </c>
+      <c r="D116" s="13">
         <v>4750</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="22"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -2647,8 +2795,9 @@
       <c r="D117" s="13">
         <v>4750</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="22"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>12</v>
       </c>
@@ -2661,8 +2810,9 @@
       <c r="D118" s="16">
         <v>4550</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="23"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -2675,8 +2825,9 @@
       <c r="D119" s="13">
         <v>2550</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="22"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -2689,8 +2840,9 @@
       <c r="D120" s="13">
         <v>4850</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="22"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -2703,8 +2855,9 @@
       <c r="D121" s="13">
         <v>4350</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="22"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -2717,8 +2870,9 @@
       <c r="D122" s="13">
         <v>4150</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="22"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>13</v>
       </c>
@@ -2731,8 +2885,9 @@
       <c r="D123" s="16">
         <v>3750</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="23"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -2745,8 +2900,9 @@
       <c r="D124" s="13">
         <v>5700</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="22"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -2759,8 +2915,9 @@
       <c r="D125" s="13">
         <v>6200</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="22"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -2773,8 +2930,9 @@
       <c r="D126" s="13">
         <v>3500</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="22"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -2787,8 +2945,9 @@
       <c r="D127" s="13">
         <v>4800</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="22"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -2801,8 +2960,9 @@
       <c r="D128" s="13">
         <v>4000</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="22"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -2815,8 +2975,9 @@
       <c r="D129" s="13">
         <v>4750</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="22"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -2829,8 +2990,9 @@
       <c r="D130" s="13">
         <v>4000</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="22"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -2843,8 +3005,9 @@
       <c r="D131" s="13">
         <v>4650</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="22"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -2857,8 +3020,9 @@
       <c r="D132" s="13">
         <v>4000</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="22"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>14</v>
       </c>
@@ -2871,8 +3035,9 @@
       <c r="D133" s="16">
         <v>4000</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="23"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -2885,8 +3050,9 @@
       <c r="D134" s="13">
         <v>4800</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="22"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>15</v>
       </c>
@@ -2899,8 +3065,9 @@
       <c r="D135" s="13">
         <v>3450</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="22"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>15</v>
       </c>
@@ -2913,8 +3080,9 @@
       <c r="D136" s="13">
         <v>3850</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="22"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>15</v>
       </c>
@@ -2927,8 +3095,9 @@
       <c r="D137" s="13">
         <v>4700</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="22"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>15</v>
       </c>
@@ -2941,8 +3110,9 @@
       <c r="D138" s="13">
         <v>3700</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="22"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>15</v>
       </c>
@@ -2955,8 +3125,9 @@
       <c r="D139" s="13">
         <v>3900</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="22"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>15</v>
       </c>
@@ -2969,8 +3140,9 @@
       <c r="D140" s="13">
         <v>3650</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="22"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>15</v>
       </c>
@@ -2983,8 +3155,9 @@
       <c r="D141" s="13">
         <v>3900</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="22"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>15</v>
       </c>
@@ -2997,8 +3170,9 @@
       <c r="D142" s="13">
         <v>3150</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="22"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -3011,8 +3185,9 @@
       <c r="D143" s="13">
         <v>5050</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="22"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>15</v>
       </c>
@@ -3025,8 +3200,9 @@
       <c r="D144" s="13">
         <v>4100</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="22"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -3039,6 +3215,7 @@
       <c r="D145" s="13">
         <v>4050</v>
       </c>
+      <c r="E145" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3047,7 +3224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
